--- a/ConfigData/Xlsx/Achieve.xlsx
+++ b/ConfigData/Xlsx/Achieve.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fish\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1870,7 +1870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,8 +2056,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2170,6 +2176,37 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2304,17 +2341,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2363,10 +2415,307 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2450,18 +2799,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I135" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I135" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="11" headerRowCellStyle="百分比">
+  <autoFilter ref="A3:I135"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Descript"/>
-    <tableColumn id="4" name="Type"/>
-    <tableColumn id="5" name="CheckType"/>
-    <tableColumn id="6" name="Condition"/>
-    <tableColumn id="7" name="Money"/>
-    <tableColumn id="8" name="Item"/>
-    <tableColumn id="9" name="Icon"/>
+    <tableColumn id="1" name="Id" dataDxfId="10"/>
+    <tableColumn id="2" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" name="Descript" dataDxfId="8"/>
+    <tableColumn id="4" name="Type" dataDxfId="7"/>
+    <tableColumn id="5" name="CheckType" dataDxfId="6"/>
+    <tableColumn id="6" name="Condition" dataDxfId="5"/>
+    <tableColumn id="7" name="Money" dataDxfId="4"/>
+    <tableColumn id="8" name="Item" dataDxfId="3"/>
+    <tableColumn id="9" name="Icon" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2756,3533 +3105,3665 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="5" max="6" width="11.75" customWidth="1"/>
+    <col min="5" max="6" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I3" s="8" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>14000001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>14000002</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>14000003</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>14000011</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>14000012</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>14000013</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>14000014</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>14000015</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>25</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>14000021</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>14000022</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>14000023</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>30</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14000024</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14000025</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>20</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>14000026</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>30</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>14000027</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>14000028</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>14000030</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>30</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>14000031</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>25</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>14000032</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>14000033</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>25</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>14000034</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>14000035</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>25</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>14000036</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>14000037</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>25</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>14000041</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>14000042</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>25</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>14000043</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>14000044</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>25</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>14000045</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>14000046</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>25</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>14000051</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>14000052</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>14000053</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>14001001</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>14001002</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>25</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>14001003</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>14001004</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>25</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>14001005</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>14001006</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>25</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>14001007</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>2</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>14001008</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>25</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>14001009</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>2</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>14001010</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>25</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>14001011</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>2</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G47">
-        <v>10</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G47" s="1">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>14001012</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>2</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>25</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>14001013</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>2</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G49">
-        <v>10</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="G49" s="1">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>14001014</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>25</v>
       </c>
-      <c r="I50" t="s">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>14002000</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>14002001</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>3</v>
       </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G52" s="1">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>14002002</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>3</v>
       </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="G53" s="1">
+        <v>10</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>14002003</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>3</v>
       </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G54">
-        <v>10</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="G54" s="1">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>14002004</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>3</v>
       </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="G55" s="1">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>14002005</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>3</v>
       </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="G56" s="1">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>14002006</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>3</v>
       </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="G57" s="1">
+        <v>10</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>14002007</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="G58" s="1">
+        <v>10</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>14002008</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>3</v>
       </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="G59" s="1">
+        <v>10</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>14002010</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>3</v>
       </c>
-      <c r="E60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G60">
-        <v>10</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="G60" s="1">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>14002011</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>3</v>
       </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G61">
-        <v>10</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="G61" s="1">
+        <v>10</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>14002012</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>3</v>
       </c>
-      <c r="E62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G62">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="G62" s="1">
+        <v>10</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>14002013</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>3</v>
       </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="G63" s="1">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>14002014</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>3</v>
       </c>
-      <c r="E64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G64">
-        <v>10</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="G64" s="1">
+        <v>10</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>14002015</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>3</v>
       </c>
-      <c r="E65" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G65">
-        <v>10</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="G65" s="1">
+        <v>10</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>14002016</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>3</v>
       </c>
-      <c r="E66" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G66">
-        <v>10</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="G66" s="1">
+        <v>10</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>14002017</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>3</v>
       </c>
-      <c r="E67" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G67">
-        <v>10</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="G67" s="1">
+        <v>10</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>14002018</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>3</v>
       </c>
-      <c r="E68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G68">
-        <v>10</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="G68" s="1">
+        <v>10</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>14002019</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>3</v>
       </c>
-      <c r="E69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G69">
-        <v>10</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="G69" s="1">
+        <v>10</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>14002020</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>3</v>
       </c>
-      <c r="E70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G70">
-        <v>10</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="G70" s="1">
+        <v>10</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>14002021</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>3</v>
       </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G71">
-        <v>10</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="G71" s="1">
+        <v>10</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>14002022</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>3</v>
       </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G72">
-        <v>10</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="G72" s="1">
+        <v>10</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>14002023</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>3</v>
       </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G73">
-        <v>10</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="G73" s="1">
+        <v>10</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>14002024</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>3</v>
       </c>
-      <c r="E74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G74">
-        <v>10</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="G74" s="1">
+        <v>10</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>14002025</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>3</v>
       </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="G75" s="1">
+        <v>10</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>14002030</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G76">
-        <v>10</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="G76" s="1">
+        <v>10</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>14002031</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>3</v>
       </c>
-      <c r="E77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G77">
-        <v>10</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="G77" s="1">
+        <v>10</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>14002032</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>3</v>
       </c>
-      <c r="E78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="G78" s="1">
+        <v>10</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>14002033</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>3</v>
       </c>
-      <c r="E79" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="G79" s="1">
+        <v>10</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>14002034</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>3</v>
       </c>
-      <c r="E80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G80">
-        <v>10</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="G80" s="1">
+        <v>10</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>14002035</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>3</v>
       </c>
-      <c r="E81" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G81">
-        <v>10</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="G81" s="1">
+        <v>10</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>14002036</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>3</v>
       </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G82">
-        <v>10</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="G82" s="1">
+        <v>10</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>14002037</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>3</v>
       </c>
-      <c r="E83" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G83">
-        <v>10</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="G83" s="1">
+        <v>10</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>14003000</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>4</v>
       </c>
-      <c r="E84" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G84">
-        <v>10</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="G84" s="1">
+        <v>10</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>14003001</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>4</v>
       </c>
-      <c r="E85" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G85">
-        <v>10</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="G85" s="1">
+        <v>10</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>14003002</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>4</v>
       </c>
-      <c r="E86" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="E86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G86">
-        <v>10</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="G86" s="1">
+        <v>10</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>14003003</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>4</v>
       </c>
-      <c r="E87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="E87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G87">
-        <v>10</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="G87" s="1">
+        <v>10</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>14003004</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>4</v>
       </c>
-      <c r="E88" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G88">
-        <v>10</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="G88" s="1">
+        <v>10</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>14003005</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>4</v>
       </c>
-      <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G89">
-        <v>10</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="G89" s="1">
+        <v>10</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>14003006</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>4</v>
       </c>
-      <c r="E90" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="E90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G90">
-        <v>10</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="G90" s="1">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>14003007</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>4</v>
       </c>
-      <c r="E91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="E91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="G91" s="1">
+        <v>10</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>14003008</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>4</v>
       </c>
-      <c r="E92" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G92">
-        <v>10</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="G92" s="1">
+        <v>10</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>14003009</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>4</v>
       </c>
-      <c r="E93" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G93">
-        <v>10</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="G93" s="1">
+        <v>10</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>14003010</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>4</v>
       </c>
-      <c r="E94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G94">
-        <v>10</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="G94" s="1">
+        <v>10</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>14003011</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>4</v>
       </c>
-      <c r="E95" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G95">
-        <v>10</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="G95" s="1">
+        <v>10</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>14003012</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>4</v>
       </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G96">
-        <v>10</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="G96" s="1">
+        <v>10</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>14003013</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>4</v>
       </c>
-      <c r="E97" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G97">
-        <v>10</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="G97" s="1">
+        <v>10</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>14003014</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>4</v>
       </c>
-      <c r="E98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G98">
-        <v>10</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="G98" s="1">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>14003015</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>4</v>
       </c>
-      <c r="E99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G99">
-        <v>10</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="G99" s="1">
+        <v>10</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>14003016</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>4</v>
       </c>
-      <c r="E100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G100">
-        <v>10</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="G100" s="1">
+        <v>10</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>14003020</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>4</v>
       </c>
-      <c r="E101" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G101">
-        <v>10</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="G101" s="1">
+        <v>10</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>14003021</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>4</v>
       </c>
-      <c r="E102" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G102">
-        <v>10</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="G102" s="1">
+        <v>10</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>14003022</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>4</v>
       </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G103">
-        <v>10</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="G103" s="1">
+        <v>10</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>14003023</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>4</v>
       </c>
-      <c r="E104" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="E104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G104">
-        <v>10</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="G104" s="1">
+        <v>10</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>14003024</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>4</v>
       </c>
-      <c r="E105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G105">
-        <v>10</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="G105" s="1">
+        <v>10</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>14003025</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>4</v>
       </c>
-      <c r="E106" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G106">
-        <v>10</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="G106" s="1">
+        <v>10</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>14003026</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>4</v>
       </c>
-      <c r="E107" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G107">
-        <v>10</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="G107" s="1">
+        <v>10</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>14003027</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>4</v>
       </c>
-      <c r="E108" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G108">
-        <v>10</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="G108" s="1">
+        <v>10</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>14003028</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>4</v>
       </c>
-      <c r="E109" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G109">
-        <v>10</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="G109" s="1">
+        <v>10</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>14003029</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>4</v>
       </c>
-      <c r="E110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G110">
-        <v>10</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="G110" s="1">
+        <v>10</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>14003030</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>4</v>
       </c>
-      <c r="E111" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G111">
-        <v>10</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="G111" s="1">
+        <v>10</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>14003031</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>4</v>
       </c>
-      <c r="E112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="E112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G112">
-        <v>10</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="G112" s="1">
+        <v>10</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>14003032</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>4</v>
       </c>
-      <c r="E113" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G113">
-        <v>10</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="G113" s="1">
+        <v>10</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>14003033</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>4</v>
       </c>
-      <c r="E114" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="E114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G114">
-        <v>10</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="G114" s="1">
+        <v>10</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>14003034</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>4</v>
       </c>
-      <c r="E115" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="E115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G115">
-        <v>10</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="G115" s="1">
+        <v>10</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>14003035</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>4</v>
       </c>
-      <c r="E116" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="E116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G116">
-        <v>10</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="G116" s="1">
+        <v>10</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>14003040</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>4</v>
       </c>
-      <c r="E117" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="E117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G117">
-        <v>10</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="G117" s="1">
+        <v>10</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>14003041</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>4</v>
       </c>
-      <c r="E118" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="E118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G118">
-        <v>10</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="G118" s="1">
+        <v>10</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>14003042</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>4</v>
       </c>
-      <c r="E119" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="E119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G119">
-        <v>10</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="G119" s="1">
+        <v>10</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>14003043</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>4</v>
       </c>
-      <c r="E120" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="E120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G120">
-        <v>10</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="G120" s="1">
+        <v>10</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>14003044</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>4</v>
       </c>
-      <c r="E121" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="E121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G121">
-        <v>10</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="G121" s="1">
+        <v>10</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>14003045</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>4</v>
       </c>
-      <c r="E122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="E122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G122">
-        <v>10</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="G122" s="1">
+        <v>10</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>14003046</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>4</v>
       </c>
-      <c r="E123" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="E123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G123">
-        <v>10</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="G123" s="1">
+        <v>10</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>14003047</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>4</v>
       </c>
-      <c r="E124" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="E124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G124">
-        <v>10</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="G124" s="1">
+        <v>10</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>14004000</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>5</v>
       </c>
-      <c r="E125" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="E125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="1">
         <v>5</v>
       </c>
-      <c r="I125" t="s">
+      <c r="H125" s="1"/>
+      <c r="I125" s="1" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>14004001</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>5</v>
       </c>
-      <c r="E126" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <v>5</v>
       </c>
-      <c r="I126" t="s">
+      <c r="H126" s="1"/>
+      <c r="I126" s="1" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>14004002</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>5</v>
       </c>
-      <c r="E127" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="E127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <v>5</v>
       </c>
-      <c r="I127" t="s">
+      <c r="H127" s="1"/>
+      <c r="I127" s="1" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>14004003</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>5</v>
       </c>
-      <c r="E128" t="s">
-        <v>15</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="E128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>5</v>
       </c>
-      <c r="I128" t="s">
+      <c r="H128" s="1"/>
+      <c r="I128" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>14004004</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>5</v>
       </c>
-      <c r="E129" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="E129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>5</v>
       </c>
-      <c r="I129" t="s">
+      <c r="H129" s="1"/>
+      <c r="I129" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>14004005</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>5</v>
       </c>
-      <c r="E130" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="E130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="1">
         <v>5</v>
       </c>
-      <c r="I130" t="s">
+      <c r="H130" s="1"/>
+      <c r="I130" s="1" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>14004006</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>5</v>
       </c>
-      <c r="E131" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="E131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="1">
         <v>5</v>
       </c>
-      <c r="I131" t="s">
+      <c r="H131" s="1"/>
+      <c r="I131" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>14004007</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>5</v>
       </c>
-      <c r="E132" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="E132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="1">
         <v>5</v>
       </c>
-      <c r="I132" t="s">
+      <c r="H132" s="1"/>
+      <c r="I132" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>14004008</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>5</v>
       </c>
-      <c r="E133" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="E133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="1">
         <v>5</v>
       </c>
-      <c r="I133" t="s">
+      <c r="H133" s="1"/>
+      <c r="I133" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>14004009</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>5</v>
       </c>
-      <c r="E134" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="E134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="1">
         <v>5</v>
       </c>
-      <c r="I134" t="s">
+      <c r="H134" s="1"/>
+      <c r="I134" s="1" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>14004010</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>5</v>
       </c>
-      <c r="E135" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="E135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="1">
         <v>5</v>
       </c>
-      <c r="I135" t="s">
+      <c r="H135" s="1"/>
+      <c r="I135" s="1" t="s">
         <v>528</v>
       </c>
     </row>
